--- a/documentation/Design/Authentication/UseCases.xlsx
+++ b/documentation/Design/Authentication/UseCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/Authentication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519CC1BE-BC74-B14D-8CE9-C2EB1840B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6085FA88-8512-9B43-8B4D-E591D9DEFC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3560" yWindow="2760" windowWidth="27840" windowHeight="16740" xr2:uid="{F0609C24-32A6-C349-A70B-863BF492B205}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Forgot password</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>"Invalid username or password"</t>
-  </si>
-  <si>
-    <t>OTN</t>
-  </si>
-  <si>
-    <t>OTN valid</t>
   </si>
   <si>
     <t>ChangePassword</t>
@@ -143,21 +137,6 @@
   <si>
     <t>New pwd
 valid</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">OK (Authenticated. Reset failure attempts attributes, redirect to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ChangePassword)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -569,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBC7D1E-D48B-5447-A87E-3A78B30E5816}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,24 +572,24 @@
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -627,10 +606,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -653,14 +632,14 @@
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -678,7 +657,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -732,7 +711,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -750,7 +729,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -768,7 +747,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -786,7 +765,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -796,23 +775,21 @@
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -822,7 +799,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -830,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -840,77 +817,25 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" t="s">
-        <v>20</v>
+      <c r="E17" s="1"/>
+      <c r="F17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
